--- a/08/datasaurus.xlsx
+++ b/08/datasaurus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelica\Documents\Work\Books\OReilly - Excel\Learning-Generative-AI-Tools-for-Excel\08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216639FC-7A2C-4990-A35C-F42FBBCA7557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5DD16-0ABB-8547-9B28-3F539AD63EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="6860" windowWidth="20870" windowHeight="10130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1840" windowWidth="26040" windowHeight="15020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dino" sheetId="5" r:id="rId1"/>
@@ -663,1250 +663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Dino!$A$2:$A$143</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="142"/>
-                <c:pt idx="0">
-                  <c:v>55.384599999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.153799999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.820500000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.769199999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.7179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.076900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.974399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.1538</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.076899999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.307700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.307700000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.897400000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.820500000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.384599999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44.102600000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53.076900000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59.230800000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>61.2821</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>61.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>57.435899999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54.8718</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>52.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>48.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>51.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45.384599999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42.820500000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38.7179</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>35.1282</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.589700000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>36.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>38.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32.051299999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>35.897399999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>41.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44.102600000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>47.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>49.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>51.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.589700000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55.1282</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>59.230800000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62.307699999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>64.871799999999993</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>70.512799999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>71.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>69.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>46.923099999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>48.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>53.076900000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>55.384599999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>56.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>56.153799999999997</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>53.846200000000003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>51.2821</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>47.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>29.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>29.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>31.2821</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>57.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>61.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>64.871799999999993</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>68.461500000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>70.769199999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>72.051299999999998</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>73.846199999999996</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>75.128200000000007</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>76.666700000000006</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>77.692300000000003</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>79.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>81.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>83.333299999999994</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>85.128200000000007</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>86.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>87.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>89.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>93.333299999999994</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>95.384600000000006</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>56.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>59.230800000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>60.769199999999998</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>63.076900000000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>64.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>64.358999999999995</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>74.358999999999995</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>71.2821</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>67.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>65.897400000000005</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>63.076900000000002</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>61.2821</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>58.7179</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>55.1282</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>52.307699999999997</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>49.743600000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>47.435899999999997</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44.8718</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>48.7179</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>51.2821</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>54.102600000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>56.153799999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>52.051299999999998</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>48.7179</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>47.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>46.153799999999997</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>50.512799999999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>53.846200000000003</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>57.435899999999997</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>64.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>66.923100000000005</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>71.2821</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>74.358999999999995</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>78.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>67.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>68.461500000000001</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>68.205100000000002</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>37.692300000000003</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>39.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>91.2821</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>47.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44.102600000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Dino!$B$2:$B$143</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="142"/>
-                <c:pt idx="0">
-                  <c:v>97.179500000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88.333299999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.871799999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.871799999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77.564099999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>51.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54.102600000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>55.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>55.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>57.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>62.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>69.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.8718</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>46.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44.102600000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>36.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49.102600000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>36.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.102599999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>26.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>25.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28.718</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>34.8718</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>37.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>46.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>46.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>47.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>53.718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>69.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>79.871799999999993</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>84.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>85.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>85.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>86.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>86.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>82.948700000000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>80.641000000000005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>78.718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78.718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>77.564099999999996</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>59.8718</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>62.179499999999997</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>62.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>99.487200000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>99.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>97.564099999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>94.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>91.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>86.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>83.333299999999994</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>79.102599999999995</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>75.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>71.410300000000007</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>66.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>60.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>55.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>51.410299999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>47.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>46.025599999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>42.564100000000003</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>39.8718</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>36.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>33.718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>40.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>38.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>33.718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>29.102599999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>25.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>24.102599999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>22.948699999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>22.948699999999999</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>22.179500000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>20.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>19.102599999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>19.102599999999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>18.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>18.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>17.5641</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>16.025600000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>13.718</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>14.8718</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>14.8718</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>14.8718</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>14.102600000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>12.5641</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>11.025600000000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9.8718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.0255999999999998</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>9.4871999999999996</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>10.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>10.256399999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>10.641</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>10.641</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>10.641</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>10.641</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>10.641</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10.641</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8.718</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>5.2564000000000002</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2.9487000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>25.769200000000001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>25.384599999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>41.538499999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>95.769199999999998</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>92.692300000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{317A7BAD-5D97-4D23-9C79-D2219B3527DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="925548040"/>
-        <c:axId val="1310135816"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="925548040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>x</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1310135816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1310135816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>y</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="925548040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2902,7 +1659,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2940,7 +1697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1312804360"/>
@@ -3019,7 +1776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3057,7 +1814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1312801800"/>
@@ -3098,1250 +1855,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Bullseye!$A$2:$A$143</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="142"/>
-                <c:pt idx="0">
-                  <c:v>51.203890000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.974469999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.872070000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.179929999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.683199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.890419999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.548969999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.649569999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.750599999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.560839999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.635539999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.95946</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.689150000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.2882</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.0245</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35.469520000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36.894329999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>39.055549999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46.957079999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37.310450000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40.00967</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48.014389999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53.703780000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.067500000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>62.048029999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>59.839970000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55.160939999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>61.279789999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>60.834919999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>61.520589999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>36.916539999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38.502200000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>48.664369999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50.285249999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42.276330000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>54.031779999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37.329360000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41.389519999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40.074669999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.349679999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>34.7637</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37.026629999999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>36.455570000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>35.537660000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20.408950000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>23.495709999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.557539999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.008229999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53.980400000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>52.234310000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>59.503079999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>41.163780000000003</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>48.993040000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>59.269280000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45.469180000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>62.691270000000003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>73.428669999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>70.846429999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>71.539019999999994</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.620869999999996</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>72.470950000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64.812240000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>60.853679999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>67.789500000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>41.609560000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>53.003030000000003</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>54.714170000000003</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44.291670000000003</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>49.191719999999997</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>53.101379999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>51.599850000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>54.379719999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>46.48077</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>53.174660000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>45.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>36.0334</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>28.271190000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>25.05481</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>64.758889999999994</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>63.144530000000003</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50.424680000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>70.644999999999996</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>63.149050000000003</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>62.824019999999997</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>70.236869999999996</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>70.042739999999995</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>72.570620000000005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>75.130719999999997</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>83.293909999999997</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>79.664259999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>88.432100000000005</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>89.115560000000002</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>89.092200000000005</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>91.726010000000002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>91.73554</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>91.507890000000003</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>88.239000000000004</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>88.530519999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>55.365160000000003</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>62.56026</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>58.00667</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>55.067120000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>61.614780000000003</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>68.543139999999994</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>77.706109999999995</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>68.453050000000005</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>68.257210000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>70.255470000000003</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>65.044330000000002</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>60.09225</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>52.99203</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>50.144629999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>46.508609999999997</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43.807029999999997</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>57.81785</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>50.940489999999997</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>63.497320000000002</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>50.016480000000001</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>58.636769999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>54.730289999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>65.875550000000004</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>57.060980000000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>46.81991</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>38.359389999999998</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>47.315420000000003</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>55.051920000000003</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>50.51596</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>49.677410000000002</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>67.280659999999997</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>66.173019999999994</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>61.088540000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>66.053089999999997</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>72.669989999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>61.50347</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>68.99503</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>78.249920000000003</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>36.48198</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>50.967750000000002</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>91.191050000000004</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>55.863770000000002</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>49.280589999999997</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>43.368499999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Bullseye!$B$2:$B$143</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="142"/>
-                <c:pt idx="0">
-                  <c:v>83.339780000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85.49982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.829740000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.045119999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.017939999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.567490000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80.812600000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.664529999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.011089999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>72.847830000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.610709999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66.041499999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.721310000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.06306</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61.342619999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.115879999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>47.706560000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>55.546970000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>65.240409999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45.258749999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60.986579999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>65.712819999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>66.389480000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>64.034999999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63.845860000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>64.476759999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.237309999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.766400000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>64.603769999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>64.79186</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41.09525</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41.567160000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.680669999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30.33792</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.527639999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.672350000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39.602040000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.296059999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>34.623690000000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>47.141069999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>47.6248</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44.462290000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40.791840000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48.729390000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.203029999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.322469999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21.36478</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.98507</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29.350989999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29.711670000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30.66967</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>34.315759999999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.030360000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.640699999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>33.831189999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>30.290369999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>48.577860000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>52.282249999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45.521810000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>38.00656</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>51.122129999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62.810920000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65.49915</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>61.363700000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>83.848690000000005</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>84.674800000000005</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>84.043130000000005</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>82.909440000000004</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>85.876230000000007</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>84.547659999999993</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>84.819820000000007</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>84.240359999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>83.518209999999996</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>84.260570000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>85.237080000000006</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>53.371690000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>72.840230000000005</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>71.548599999999993</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>82.315219999999997</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>85.236699999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85.174750000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82.43092</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83.946860000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84.966189999999997</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>82.171149999999997</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>80.385019999999997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>80.971220000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>79.984089999999995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>70.77843</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>73.932310000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>64.624250000000004</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>64.001509999999996</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>57.768189999999997</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>52.623350000000002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>48.970210000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>53.312649999999998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>31.477429999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>30.476030000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>30.44585</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>30.447140000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>30.253720000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>29.01154</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>29.994389999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>35.657829999999997</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>20.304259999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13.03553</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>12.384639999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>13.25038</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>11.00084</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>11.872109999999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>9.9066679999999998</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>12.211539999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11.207129999999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11.31894</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>10.94514</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.6915469999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.914070000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11.93385</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11.97472</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11.412879999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>11.73244</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>9.9205609999999993</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>10.49465</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>13.431319999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>12.85345</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>11.94999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>9.7655919999999998</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>10.38313</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>14.12865</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>12.03792</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>10.084530000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>13.380229999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>15.23423</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>10.82841</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>13.99431</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>17.883240000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>15.16276</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>29.679770000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>46.674340000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>85.336489999999998</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>84.048820000000006</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>84.332179999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{303DA805-63A8-46BB-9BB2-AE3A5E9022C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="618939911"/>
-        <c:axId val="618941959"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="618939911"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>x</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="618941959"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="618941959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>y</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="618939911"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4353,86 +1867,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4988,1080 +2422,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Scatter. &#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C84F4F0-E228-47B0-843A-1FEA59055B35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6082,47 +2443,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A87327D-5FD2-05BF-ABD1-32539AF1B7D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Scatter. &#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F079621-90D1-7F91-0DED-D429A6691A0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,11 +2815,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F61B0-09A1-4AEF-B28B-25B4C997B765}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6507,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>55.384599999999999</v>
       </c>
@@ -6515,7 +2837,7 @@
         <v>97.179500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>51.538499999999999</v>
       </c>
@@ -6523,7 +2845,7 @@
         <v>96.025599999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>46.153799999999997</v>
       </c>
@@ -6531,7 +2853,7 @@
         <v>94.487200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>42.820500000000003</v>
       </c>
@@ -6539,7 +2861,7 @@
         <v>91.410300000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>40.769199999999998</v>
       </c>
@@ -6547,7 +2869,7 @@
         <v>88.333299999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>38.7179</v>
       </c>
@@ -6555,7 +2877,7 @@
         <v>84.871799999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>35.640999999999998</v>
       </c>
@@ -6563,7 +2885,7 @@
         <v>79.871799999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>33.076900000000002</v>
       </c>
@@ -6571,7 +2893,7 @@
         <v>77.564099999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>28.974399999999999</v>
       </c>
@@ -6579,7 +2901,7 @@
         <v>74.487200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>26.1538</v>
       </c>
@@ -6587,7 +2909,7 @@
         <v>71.410300000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>23.076899999999998</v>
       </c>
@@ -6595,7 +2917,7 @@
         <v>66.410300000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>22.307700000000001</v>
       </c>
@@ -6603,7 +2925,7 @@
         <v>61.794899999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>22.307700000000001</v>
       </c>
@@ -6611,7 +2933,7 @@
         <v>57.179499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>23.333300000000001</v>
       </c>
@@ -6619,7 +2941,7 @@
         <v>52.948700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>25.897400000000001</v>
       </c>
@@ -6627,7 +2949,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>29.487200000000001</v>
       </c>
@@ -6635,7 +2957,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>32.820500000000003</v>
       </c>
@@ -6643,7 +2965,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>35.384599999999999</v>
       </c>
@@ -6651,7 +2973,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>40.256399999999999</v>
       </c>
@@ -6659,7 +2981,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>44.102600000000002</v>
       </c>
@@ -6667,7 +2989,7 @@
         <v>52.948700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>46.666699999999999</v>
       </c>
@@ -6675,7 +2997,7 @@
         <v>54.102600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>50</v>
       </c>
@@ -6683,7 +3005,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>53.076900000000002</v>
       </c>
@@ -6691,7 +3013,7 @@
         <v>55.640999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>56.666699999999999</v>
       </c>
@@ -6699,7 +3021,7 @@
         <v>56.025599999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>59.230800000000002</v>
       </c>
@@ -6707,7 +3029,7 @@
         <v>57.948700000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>61.2821</v>
       </c>
@@ -6715,7 +3037,7 @@
         <v>62.179499999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>61.538499999999999</v>
       </c>
@@ -6723,7 +3045,7 @@
         <v>66.410300000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>61.794899999999998</v>
       </c>
@@ -6731,7 +3053,7 @@
         <v>69.102599999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>57.435899999999997</v>
       </c>
@@ -6739,7 +3061,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>54.8718</v>
       </c>
@@ -6747,7 +3069,7 @@
         <v>49.8718</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>52.564100000000003</v>
       </c>
@@ -6755,7 +3077,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>48.205100000000002</v>
       </c>
@@ -6763,7 +3085,7 @@
         <v>38.333300000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>49.487200000000001</v>
       </c>
@@ -6771,7 +3093,7 @@
         <v>42.179499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>51.025599999999997</v>
       </c>
@@ -6779,7 +3101,7 @@
         <v>44.102600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>45.384599999999999</v>
       </c>
@@ -6787,7 +3109,7 @@
         <v>36.410299999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>42.820500000000003</v>
       </c>
@@ -6795,7 +3117,7 @@
         <v>32.564100000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>38.7179</v>
       </c>
@@ -6803,7 +3125,7 @@
         <v>31.410299999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>35.1282</v>
       </c>
@@ -6811,7 +3133,7 @@
         <v>30.256399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>32.564100000000003</v>
       </c>
@@ -6819,7 +3141,7 @@
         <v>32.179499999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>30</v>
       </c>
@@ -6827,7 +3149,7 @@
         <v>36.794899999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>33.589700000000001</v>
       </c>
@@ -6835,7 +3157,7 @@
         <v>41.410299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>36.666699999999999</v>
       </c>
@@ -6843,7 +3165,7 @@
         <v>45.640999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>38.205100000000002</v>
       </c>
@@ -6851,7 +3173,7 @@
         <v>49.102600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>29.743600000000001</v>
       </c>
@@ -6859,7 +3181,7 @@
         <v>36.025599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>29.743600000000001</v>
       </c>
@@ -6867,7 +3189,7 @@
         <v>32.179499999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>30</v>
       </c>
@@ -6875,7 +3197,7 @@
         <v>29.102599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>32.051299999999998</v>
       </c>
@@ -6883,7 +3205,7 @@
         <v>26.794899999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>35.897399999999998</v>
       </c>
@@ -6891,7 +3213,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>41.025599999999997</v>
       </c>
@@ -6899,7 +3221,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>44.102600000000002</v>
       </c>
@@ -6907,7 +3229,7 @@
         <v>25.640999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>47.179499999999997</v>
       </c>
@@ -6915,7 +3237,7 @@
         <v>28.718</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>49.487200000000001</v>
       </c>
@@ -6923,7 +3245,7 @@
         <v>31.410299999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>51.538499999999999</v>
       </c>
@@ -6931,7 +3253,7 @@
         <v>34.8718</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>53.589700000000001</v>
       </c>
@@ -6939,7 +3261,7 @@
         <v>37.564100000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55.1282</v>
       </c>
@@ -6947,7 +3269,7 @@
         <v>40.640999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>56.666699999999999</v>
       </c>
@@ -6955,7 +3277,7 @@
         <v>42.179499999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>59.230800000000002</v>
       </c>
@@ -6963,7 +3285,7 @@
         <v>44.487200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>62.307699999999997</v>
       </c>
@@ -6971,7 +3293,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>64.871799999999993</v>
       </c>
@@ -6979,7 +3301,7 @@
         <v>46.794899999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>67.948700000000002</v>
       </c>
@@ -6987,7 +3309,7 @@
         <v>47.948700000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>70.512799999999999</v>
       </c>
@@ -6995,7 +3317,7 @@
         <v>53.718000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>71.538499999999999</v>
       </c>
@@ -7003,7 +3325,7 @@
         <v>60.640999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>71.538499999999999</v>
       </c>
@@ -7011,7 +3333,7 @@
         <v>64.487200000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>69.487200000000001</v>
       </c>
@@ -7019,7 +3341,7 @@
         <v>69.487200000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>46.923099999999998</v>
       </c>
@@ -7027,7 +3349,7 @@
         <v>79.871799999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>48.205100000000002</v>
       </c>
@@ -7035,7 +3357,7 @@
         <v>84.102599999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>50</v>
       </c>
@@ -7043,7 +3365,7 @@
         <v>85.256399999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>53.076900000000002</v>
       </c>
@@ -7051,7 +3373,7 @@
         <v>85.256399999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>55.384599999999999</v>
       </c>
@@ -7059,7 +3381,7 @@
         <v>86.025599999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>56.666699999999999</v>
       </c>
@@ -7067,7 +3389,7 @@
         <v>86.025599999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>56.153799999999997</v>
       </c>
@@ -7075,7 +3397,7 @@
         <v>82.948700000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>53.846200000000003</v>
       </c>
@@ -7083,7 +3405,7 @@
         <v>80.641000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>51.2821</v>
       </c>
@@ -7091,7 +3413,7 @@
         <v>78.718000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>50</v>
       </c>
@@ -7099,7 +3421,7 @@
         <v>78.718000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>47.948700000000002</v>
       </c>
@@ -7107,7 +3429,7 @@
         <v>77.564099999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>29.743600000000001</v>
       </c>
@@ -7115,7 +3437,7 @@
         <v>59.8718</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>29.743600000000001</v>
       </c>
@@ -7123,7 +3445,7 @@
         <v>62.179499999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>31.2821</v>
       </c>
@@ -7131,7 +3453,7 @@
         <v>62.564100000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>57.948700000000002</v>
       </c>
@@ -7139,7 +3461,7 @@
         <v>99.487200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>61.794899999999998</v>
       </c>
@@ -7147,7 +3469,7 @@
         <v>99.102599999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>64.871799999999993</v>
       </c>
@@ -7155,7 +3477,7 @@
         <v>97.564099999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>68.461500000000001</v>
       </c>
@@ -7163,7 +3485,7 @@
         <v>94.102599999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>70.769199999999998</v>
       </c>
@@ -7171,7 +3493,7 @@
         <v>91.025599999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>72.051299999999998</v>
       </c>
@@ -7179,7 +3501,7 @@
         <v>86.410300000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>73.846199999999996</v>
       </c>
@@ -7187,7 +3509,7 @@
         <v>83.333299999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>75.128200000000007</v>
       </c>
@@ -7195,7 +3517,7 @@
         <v>79.102599999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>76.666700000000006</v>
       </c>
@@ -7203,7 +3525,7 @@
         <v>75.256399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>77.692300000000003</v>
       </c>
@@ -7211,7 +3533,7 @@
         <v>71.410300000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>79.743600000000001</v>
       </c>
@@ -7219,7 +3541,7 @@
         <v>66.794899999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>81.794899999999998</v>
       </c>
@@ -7227,7 +3549,7 @@
         <v>60.256399999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>83.333299999999994</v>
       </c>
@@ -7235,7 +3557,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>85.128200000000007</v>
       </c>
@@ -7243,7 +3565,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>86.410300000000007</v>
       </c>
@@ -7251,7 +3573,7 @@
         <v>47.564100000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>87.948700000000002</v>
       </c>
@@ -7259,7 +3581,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>89.487200000000001</v>
       </c>
@@ -7267,7 +3589,7 @@
         <v>42.564100000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>93.333299999999994</v>
       </c>
@@ -7275,7 +3597,7 @@
         <v>39.8718</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>95.384600000000006</v>
       </c>
@@ -7283,7 +3605,7 @@
         <v>36.794899999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>98.205100000000002</v>
       </c>
@@ -7291,7 +3613,7 @@
         <v>33.718000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>56.666699999999999</v>
       </c>
@@ -7299,7 +3621,7 @@
         <v>40.640999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>59.230800000000002</v>
       </c>
@@ -7307,7 +3629,7 @@
         <v>38.333300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>60.769199999999998</v>
       </c>
@@ -7315,7 +3637,7 @@
         <v>33.718000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>63.076900000000002</v>
       </c>
@@ -7323,7 +3645,7 @@
         <v>29.102599999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>64.102599999999995</v>
       </c>
@@ -7331,7 +3653,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>64.358999999999995</v>
       </c>
@@ -7339,7 +3661,7 @@
         <v>24.102599999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>74.358999999999995</v>
       </c>
@@ -7347,7 +3669,7 @@
         <v>22.948699999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>71.2821</v>
       </c>
@@ -7355,7 +3677,7 @@
         <v>22.948699999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>67.948700000000002</v>
       </c>
@@ -7363,7 +3685,7 @@
         <v>22.179500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>65.897400000000005</v>
       </c>
@@ -7371,7 +3693,7 @@
         <v>20.256399999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>63.076900000000002</v>
       </c>
@@ -7379,7 +3701,7 @@
         <v>19.102599999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>61.2821</v>
       </c>
@@ -7387,7 +3709,7 @@
         <v>19.102599999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>58.7179</v>
       </c>
@@ -7395,7 +3717,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>55.1282</v>
       </c>
@@ -7403,7 +3725,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>52.307699999999997</v>
       </c>
@@ -7411,7 +3733,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>49.743600000000001</v>
       </c>
@@ -7419,7 +3741,7 @@
         <v>17.5641</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>47.435899999999997</v>
       </c>
@@ -7427,7 +3749,7 @@
         <v>16.025600000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>44.8718</v>
       </c>
@@ -7435,7 +3757,7 @@
         <v>13.718</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>48.7179</v>
       </c>
@@ -7443,7 +3765,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>51.2821</v>
       </c>
@@ -7451,7 +3773,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>54.102600000000002</v>
       </c>
@@ -7459,7 +3781,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>56.153799999999997</v>
       </c>
@@ -7467,7 +3789,7 @@
         <v>14.102600000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>52.051299999999998</v>
       </c>
@@ -7475,7 +3797,7 @@
         <v>12.5641</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>48.7179</v>
       </c>
@@ -7483,7 +3805,7 @@
         <v>11.025600000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>47.179499999999997</v>
       </c>
@@ -7491,7 +3813,7 @@
         <v>9.8718000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>46.153799999999997</v>
       </c>
@@ -7499,7 +3821,7 @@
         <v>6.0255999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>50.512799999999999</v>
       </c>
@@ -7507,7 +3829,7 @@
         <v>9.4871999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>53.846200000000003</v>
       </c>
@@ -7515,7 +3837,7 @@
         <v>10.256399999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>57.435899999999997</v>
       </c>
@@ -7523,7 +3845,7 @@
         <v>10.256399999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>60</v>
       </c>
@@ -7531,7 +3853,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>64.102599999999995</v>
       </c>
@@ -7539,7 +3861,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>66.923100000000005</v>
       </c>
@@ -7547,7 +3869,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>71.2821</v>
       </c>
@@ -7555,7 +3877,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>74.358999999999995</v>
       </c>
@@ -7563,7 +3885,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>78.205100000000002</v>
       </c>
@@ -7571,7 +3893,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>67.948700000000002</v>
       </c>
@@ -7579,7 +3901,7 @@
         <v>8.718</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>68.461500000000001</v>
       </c>
@@ -7587,7 +3909,7 @@
         <v>5.2564000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>68.205100000000002</v>
       </c>
@@ -7595,7 +3917,7 @@
         <v>2.9487000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>37.692300000000003</v>
       </c>
@@ -7603,7 +3925,7 @@
         <v>25.769200000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>39.487200000000001</v>
       </c>
@@ -7611,7 +3933,7 @@
         <v>25.384599999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>91.2821</v>
       </c>
@@ -7619,7 +3941,7 @@
         <v>41.538499999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>50</v>
       </c>
@@ -7627,7 +3949,7 @@
         <v>95.769199999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>47.948700000000002</v>
       </c>
@@ -7635,7 +3957,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>44.102600000000002</v>
       </c>
@@ -7643,15 +3965,14 @@
         <v>92.692300000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7660,13 +3981,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A245FE4-01E2-4780-895F-079215EC8E86}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7674,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>58.213610000000003</v>
       </c>
@@ -7682,7 +4003,7 @@
         <v>91.881889999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>58.19605</v>
       </c>
@@ -7690,7 +4011,7 @@
         <v>92.21499</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>58.718229999999998</v>
       </c>
@@ -7698,7 +4019,7 @@
         <v>90.31053</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>57.278370000000002</v>
       </c>
@@ -7706,7 +4027,7 @@
         <v>89.907610000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>58.08202</v>
       </c>
@@ -7714,7 +4035,7 @@
         <v>92.008150000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>57.489449999999998</v>
       </c>
@@ -7722,7 +4043,7 @@
         <v>88.085290000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>28.088740000000001</v>
       </c>
@@ -7730,7 +4051,7 @@
         <v>63.51079</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>28.085470000000001</v>
       </c>
@@ -7738,7 +4059,7 @@
         <v>63.590200000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>28.08727</v>
       </c>
@@ -7746,7 +4067,7 @@
         <v>63.123280000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>27.578029999999998</v>
       </c>
@@ -7754,7 +4075,7 @@
         <v>62.821040000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>27.779920000000001</v>
       </c>
@@ -7762,7 +4083,7 @@
         <v>63.518149999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>28.588999999999999</v>
       </c>
@@ -7770,7 +4091,7 @@
         <v>63.024079999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>28.739139999999999</v>
       </c>
@@ -7778,7 +4099,7 @@
         <v>62.720860000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>27.0246</v>
       </c>
@@ -7786,7 +4107,7 @@
         <v>62.901859999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>28.80134</v>
       </c>
@@ -7794,7 +4115,7 @@
         <v>63.389040000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>27.18646</v>
       </c>
@@ -7802,7 +4123,7 @@
         <v>63.558729999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>29.285150000000002</v>
       </c>
@@ -7810,7 +4131,7 @@
         <v>63.383609999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>39.402949999999997</v>
       </c>
@@ -7818,7 +4139,7 @@
         <v>51.150860000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>28.811330000000002</v>
       </c>
@@ -7826,7 +4147,7 @@
         <v>61.357849999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>34.303959999999996</v>
       </c>
@@ -7834,7 +4155,7 @@
         <v>56.54213</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29.60276</v>
       </c>
@@ -7842,7 +4163,7 @@
         <v>60.157350000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>49.116160000000001</v>
       </c>
@@ -7850,7 +4171,7 @@
         <v>63.66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>39.617550000000001</v>
       </c>
@@ -7858,7 +4179,7 @@
         <v>62.925190000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>43.233080000000001</v>
       </c>
@@ -7866,7 +4187,7 @@
         <v>63.165219999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>64.892790000000005</v>
       </c>
@@ -7874,7 +4195,7 @@
         <v>65.814179999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>62.49015</v>
       </c>
@@ -7882,7 +4203,7 @@
         <v>74.584289999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>68.988079999999997</v>
       </c>
@@ -7890,7 +4211,7 @@
         <v>63.232149999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>62.105620000000002</v>
       </c>
@@ -7898,7 +4219,7 @@
         <v>75.990870000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>32.461849999999998</v>
       </c>
@@ -7906,7 +4227,7 @@
         <v>62.881900000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>41.327199999999998</v>
       </c>
@@ -7914,7 +4235,7 @@
         <v>49.070250000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>44.007150000000003</v>
       </c>
@@ -7922,7 +4243,7 @@
         <v>46.449669999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>44.074060000000003</v>
       </c>
@@ -7930,7 +4251,7 @@
         <v>34.553199999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>44.00132</v>
       </c>
@@ -7938,7 +4259,7 @@
         <v>33.904209999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>45.006300000000003</v>
       </c>
@@ -7946,7 +4267,7 @@
         <v>38.299019999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>44.443840000000002</v>
       </c>
@@ -7954,7 +4275,7 @@
         <v>36.019080000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>42.178710000000002</v>
       </c>
@@ -7962,7 +4283,7 @@
         <v>26.49212</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>44.04457</v>
       </c>
@@ -7970,7 +4291,7 @@
         <v>35.662239999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>41.640450000000001</v>
       </c>
@@ -7978,7 +4299,7 @@
         <v>27.0931</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>41.938330000000001</v>
       </c>
@@ -7986,7 +4307,7 @@
         <v>24.991520000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>44.053930000000001</v>
       </c>
@@ -7994,7 +4315,7 @@
         <v>33.55639</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>39.206719999999997</v>
       </c>
@@ -8002,7 +4323,7 @@
         <v>51.533720000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>28.704450000000001</v>
       </c>
@@ -8010,7 +4331,7 @@
         <v>61.777529999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>31.708659999999998</v>
       </c>
@@ -8018,7 +4339,7 @@
         <v>58.83775</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>42.811709999999998</v>
       </c>
@@ -8026,7 +4347,7 @@
         <v>30.02045</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43.300609999999999</v>
       </c>
@@ -8034,7 +4355,7 @@
         <v>31.526430000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>40.398629999999997</v>
       </c>
@@ -8042,7 +4363,7 @@
         <v>16.347010000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>40.435690000000001</v>
       </c>
@@ -8050,7 +4371,7 @@
         <v>20.232669999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>40.936549999999997</v>
       </c>
@@ -8058,7 +4379,7 @@
         <v>16.913</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>39.661569999999998</v>
       </c>
@@ -8066,7 +4387,7 @@
         <v>15.609360000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>40.899259999999998</v>
       </c>
@@ -8074,7 +4395,7 @@
         <v>20.79853</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>41.968620000000001</v>
       </c>
@@ -8082,7 +4403,7 @@
         <v>26.497070000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>40.383409999999998</v>
       </c>
@@ -8090,7 +4411,7 @@
         <v>21.39123</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>56.538130000000002</v>
       </c>
@@ -8098,7 +4419,7 @@
         <v>32.444249999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>52.970689999999998</v>
       </c>
@@ -8106,7 +4427,7 @@
         <v>29.040199999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54.620950000000001</v>
       </c>
@@ -8114,7 +4435,7 @@
         <v>30.344519999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>65.099040000000002</v>
       </c>
@@ -8122,7 +4443,7 @@
         <v>27.24156</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>63.055990000000001</v>
       </c>
@@ -8130,7 +4451,7 @@
         <v>29.709099999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>70.960139999999996</v>
       </c>
@@ -8138,7 +4459,7 @@
         <v>41.259500000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>69.895820000000001</v>
       </c>
@@ -8146,7 +4467,7 @@
         <v>43.453760000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>70.595889999999997</v>
       </c>
@@ -8154,7 +4475,7 @@
         <v>41.964739999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>69.647019999999998</v>
       </c>
@@ -8162,7 +4483,7 @@
         <v>44.044449999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>77.392979999999994</v>
       </c>
@@ -8170,7 +4491,7 @@
         <v>63.371459999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>64.400790000000001</v>
       </c>
@@ -8178,7 +4499,7 @@
         <v>67.448719999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>63.868960000000001</v>
       </c>
@@ -8186,7 +4507,7 @@
         <v>70.213740000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>56.59442</v>
       </c>
@@ -8194,7 +4515,7 @@
         <v>86.927009999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>56.53134</v>
       </c>
@@ -8202,7 +4523,7 @@
         <v>87.499809999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>59.652160000000002</v>
       </c>
@@ -8210,7 +4531,7 @@
         <v>87.809460000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>56.636510000000001</v>
       </c>
@@ -8218,7 +4539,7 @@
         <v>85.637500000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>58.672289999999997</v>
       </c>
@@ -8226,7 +4547,7 @@
         <v>90.077160000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>58.221609999999998</v>
       </c>
@@ -8234,7 +4555,7 @@
         <v>90.411019999999994</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>57.914659999999998</v>
       </c>
@@ -8242,7 +4563,7 @@
         <v>89.953800000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>55.315510000000003</v>
       </c>
@@ -8250,7 +4571,7 @@
         <v>80.251859999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>54.57573</v>
       </c>
@@ -8258,7 +4579,7 @@
         <v>77.536289999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>54.413089999999997</v>
       </c>
@@ -8266,7 +4587,7 @@
         <v>78.229089999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>55.074509999999997</v>
       </c>
@@ -8274,7 +4595,7 @@
         <v>79.817549999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>29.432960000000001</v>
       </c>
@@ -8282,7 +4603,7 @@
         <v>60.801780000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>29.422689999999999</v>
       </c>
@@ -8290,7 +4611,7 @@
         <v>63.068460000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>29.005610000000001</v>
       </c>
@@ -8298,7 +4619,7 @@
         <v>63.390749999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>58.461840000000002</v>
       </c>
@@ -8306,7 +4627,7 @@
         <v>90.265330000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>57.997799999999998</v>
       </c>
@@ -8314,7 +4635,7 @@
         <v>92.159909999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>57.549469999999999</v>
       </c>
@@ -8322,7 +4643,7 @@
         <v>90.748909999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>59.52993</v>
       </c>
@@ -8330,7 +4651,7 @@
         <v>88.327269999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>58.249389999999998</v>
       </c>
@@ -8338,7 +4659,7 @@
         <v>92.129679999999993</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>58.024509999999999</v>
       </c>
@@ -8346,7 +4667,7 @@
         <v>91.694419999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>58.38212</v>
       </c>
@@ -8354,7 +4675,7 @@
         <v>90.553479999999993</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>62.566760000000002</v>
       </c>
@@ -8362,7 +4683,7 @@
         <v>77.743930000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>72.175820000000002</v>
       </c>
@@ -8370,7 +4691,7 @@
         <v>63.128929999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>79.472759999999994</v>
       </c>
@@ -8378,7 +4699,7 @@
         <v>63.40869</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>80.357699999999994</v>
       </c>
@@ -8386,7 +4707,7 @@
         <v>63.295439999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>78.757239999999996</v>
       </c>
@@ -8394,7 +4715,7 @@
         <v>53.332619999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>82.540239999999997</v>
       </c>
@@ -8402,7 +4723,7 @@
         <v>56.541049999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>86.435900000000004</v>
       </c>
@@ -8410,7 +4731,7 @@
         <v>59.792760000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>79.488680000000002</v>
       </c>
@@ -8418,7 +4739,7 @@
         <v>53.651670000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>81.530420000000007</v>
       </c>
@@ -8426,7 +4747,7 @@
         <v>56.025359999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>79.186790000000002</v>
       </c>
@@ -8434,7 +4755,7 @@
         <v>53.234789999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>77.899060000000006</v>
       </c>
@@ -8442,7 +4763,7 @@
         <v>51.82246</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>75.130709999999993</v>
       </c>
@@ -8450,7 +4771,7 @@
         <v>23.372440000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>76.058009999999996</v>
       </c>
@@ -8458,7 +4779,7 @@
         <v>16.383749999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>57.614669999999997</v>
       </c>
@@ -8466,7 +4787,7 @@
         <v>33.822450000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>56.171399999999998</v>
       </c>
@@ -8474,7 +4795,7 @@
         <v>32.117989999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>66.287890000000004</v>
       </c>
@@ -8482,7 +4803,7 @@
         <v>26.11711</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>67.881720000000001</v>
       </c>
@@ -8490,7 +4811,7 @@
         <v>24.23602</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>64.028080000000003</v>
       </c>
@@ -8498,7 +4819,7 @@
         <v>27.672689999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>77.496650000000002</v>
       </c>
@@ -8506,7 +4827,7 @@
         <v>14.94852</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>77.634649999999993</v>
       </c>
@@ -8514,7 +4835,7 @@
         <v>14.46185</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>77.863730000000004</v>
       </c>
@@ -8522,7 +4843,7 @@
         <v>14.61068</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>77.338160000000002</v>
       </c>
@@ -8530,7 +4851,7 @@
         <v>15.89005</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>76.180419999999998</v>
       </c>
@@ -8538,7 +4859,7 @@
         <v>15.912570000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>77.252650000000003</v>
       </c>
@@ -8546,7 +4867,7 @@
         <v>15.15152</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>77.413380000000004</v>
       </c>
@@ -8554,7 +4875,7 @@
         <v>15.22193</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>76.731849999999994</v>
       </c>
@@ -8562,7 +4883,7 @@
         <v>16.216850000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>49.471110000000003</v>
       </c>
@@ -8570,7 +4891,7 @@
         <v>25.063020000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>42.47654</v>
       </c>
@@ -8578,7 +4899,7 @@
         <v>18.338470000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>43.595120000000001</v>
       </c>
@@ -8586,7 +4907,7 @@
         <v>19.994199999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>50.339970000000001</v>
       </c>
@@ -8594,7 +4915,7 @@
         <v>26.471399999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>40.748980000000003</v>
       </c>
@@ -8602,7 +4923,7 @@
         <v>16.18214</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>38.38653</v>
       </c>
@@ -8610,7 +4931,7 @@
         <v>14.580220000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>38.404020000000003</v>
       </c>
@@ -8618,7 +4939,7 @@
         <v>14.45195</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>38.764279999999999</v>
       </c>
@@ -8626,7 +4947,7 @@
         <v>14.365589999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>41.470140000000001</v>
       </c>
@@ -8634,7 +4955,7 @@
         <v>17.278030000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>47.1554</v>
       </c>
@@ -8642,7 +4963,7 @@
         <v>22.377929999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>39.582569999999997</v>
       </c>
@@ -8650,7 +4971,7 @@
         <v>17.64845</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>41.74024</v>
       </c>
@@ -8658,7 +4979,7 @@
         <v>17.829319999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>39.311869999999999</v>
       </c>
@@ -8666,7 +4987,7 @@
         <v>15.64072</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>41.679850000000002</v>
       </c>
@@ -8674,7 +4995,7 @@
         <v>17.745920000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>39.08746</v>
       </c>
@@ -8682,7 +5003,7 @@
         <v>15.122299999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>41.481499999999997</v>
       </c>
@@ -8690,7 +5011,7 @@
         <v>18.047440000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>77.606089999999995</v>
       </c>
@@ -8698,7 +5019,7 @@
         <v>15.16287</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>75.982659999999996</v>
       </c>
@@ -8706,7 +5027,7 @@
         <v>16.306920000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>76.945760000000007</v>
       </c>
@@ -8714,7 +5035,7 @@
         <v>15.85848</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>77.543719999999993</v>
       </c>
@@ -8722,7 +5043,7 @@
         <v>15.25395</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>77.584739999999996</v>
       </c>
@@ -8730,7 +5051,7 @@
         <v>15.83004</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>76.822299999999998</v>
       </c>
@@ -8738,7 +5059,7 @@
         <v>15.59517</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>77.348569999999995</v>
       </c>
@@ -8746,7 +5067,7 @@
         <v>15.77453</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>77.573149999999998</v>
       </c>
@@ -8754,7 +5075,7 @@
         <v>14.78065</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>77.972610000000003</v>
       </c>
@@ -8762,7 +5083,7 @@
         <v>14.9557</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>41.528919999999999</v>
       </c>
@@ -8770,7 +5091,7 @@
         <v>24.916429999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>43.722549999999998</v>
       </c>
@@ -8778,7 +5099,7 @@
         <v>19.07733</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>79.326080000000005</v>
       </c>
@@ -8786,7 +5107,7 @@
         <v>52.900390000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>56.663969999999999</v>
       </c>
@@ -8794,7 +5115,7 @@
         <v>87.940129999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>57.82179</v>
       </c>
@@ -8802,7 +5123,7 @@
         <v>90.693169999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>58.243169999999999</v>
       </c>
@@ -8810,7 +5131,7 @@
         <v>92.104330000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
     </row>
@@ -8829,9 +5150,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8839,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>51.203890000000001</v>
       </c>
@@ -8847,7 +5168,7 @@
         <v>83.339780000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>58.974469999999997</v>
       </c>
@@ -8855,7 +5176,7 @@
         <v>85.49982</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>51.872070000000001</v>
       </c>
@@ -8863,7 +5184,7 @@
         <v>85.829740000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>48.179929999999999</v>
       </c>
@@ -8871,7 +5192,7 @@
         <v>85.045119999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>41.683199999999999</v>
       </c>
@@ -8879,7 +5200,7 @@
         <v>84.017939999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>37.890419999999999</v>
       </c>
@@ -8887,7 +5208,7 @@
         <v>82.567490000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>39.548969999999997</v>
       </c>
@@ -8895,7 +5216,7 @@
         <v>80.812600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>39.649569999999997</v>
       </c>
@@ -8903,7 +5224,7 @@
         <v>82.664529999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>34.750599999999999</v>
       </c>
@@ -8911,7 +5232,7 @@
         <v>80.011089999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>27.560839999999999</v>
       </c>
@@ -8919,7 +5240,7 @@
         <v>72.847830000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>24.635539999999999</v>
       </c>
@@ -8927,7 +5248,7 @@
         <v>71.610709999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>20.95946</v>
       </c>
@@ -8935,7 +5256,7 @@
         <v>66.041499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>20.689150000000001</v>
       </c>
@@ -8943,7 +5264,7 @@
         <v>62.721310000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>19.2882</v>
       </c>
@@ -8951,7 +5272,7 @@
         <v>62.06306</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>20.0245</v>
       </c>
@@ -8959,7 +5280,7 @@
         <v>61.342619999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>35.469520000000003</v>
       </c>
@@ -8967,7 +5288,7 @@
         <v>43.115879999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>36.894329999999997</v>
       </c>
@@ -8975,7 +5296,7 @@
         <v>47.706560000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>39.055549999999997</v>
       </c>
@@ -8983,7 +5304,7 @@
         <v>55.546970000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>46.957079999999998</v>
       </c>
@@ -8991,7 +5312,7 @@
         <v>65.240409999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>37.310450000000003</v>
       </c>
@@ -8999,7 +5320,7 @@
         <v>45.258749999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>40.00967</v>
       </c>
@@ -9007,7 +5328,7 @@
         <v>60.986579999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>48.014389999999999</v>
       </c>
@@ -9015,7 +5336,7 @@
         <v>65.712819999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>53.703780000000002</v>
       </c>
@@ -9023,7 +5344,7 @@
         <v>66.389480000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>63.067500000000003</v>
       </c>
@@ -9031,7 +5352,7 @@
         <v>64.034999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>62.048029999999997</v>
       </c>
@@ -9039,7 +5360,7 @@
         <v>63.845860000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>59.839970000000001</v>
       </c>
@@ -9047,7 +5368,7 @@
         <v>64.476759999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>55.160939999999997</v>
       </c>
@@ -9055,7 +5376,7 @@
         <v>65.237309999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>61.279789999999998</v>
       </c>
@@ -9063,7 +5384,7 @@
         <v>65.766400000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>60.834919999999997</v>
       </c>
@@ -9071,7 +5392,7 @@
         <v>64.603769999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>61.520589999999999</v>
       </c>
@@ -9079,7 +5400,7 @@
         <v>64.79186</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>36.916539999999998</v>
       </c>
@@ -9087,7 +5408,7 @@
         <v>41.09525</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>38.502200000000002</v>
       </c>
@@ -9095,7 +5416,7 @@
         <v>41.567160000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>48.664369999999998</v>
       </c>
@@ -9103,7 +5424,7 @@
         <v>30.680669999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>50.285249999999998</v>
       </c>
@@ -9111,7 +5432,7 @@
         <v>30.33792</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>42.276330000000002</v>
       </c>
@@ -9119,7 +5440,7 @@
         <v>34.527639999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>54.031779999999998</v>
       </c>
@@ -9127,7 +5448,7 @@
         <v>29.672350000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37.329360000000001</v>
       </c>
@@ -9135,7 +5456,7 @@
         <v>39.602040000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>41.389519999999997</v>
       </c>
@@ -9143,7 +5464,7 @@
         <v>37.296059999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>40.074669999999998</v>
       </c>
@@ -9151,7 +5472,7 @@
         <v>34.623690000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>35.349679999999999</v>
       </c>
@@ -9159,7 +5480,7 @@
         <v>47.141069999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>34.7637</v>
       </c>
@@ -9167,7 +5488,7 @@
         <v>47.6248</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>37.026629999999997</v>
       </c>
@@ -9175,7 +5496,7 @@
         <v>44.462290000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>36.455570000000002</v>
       </c>
@@ -9183,7 +5504,7 @@
         <v>40.791840000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>35.537660000000002</v>
       </c>
@@ -9191,7 +5512,7 @@
         <v>48.729390000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>20.408950000000001</v>
       </c>
@@ -9199,7 +5520,7 @@
         <v>32.203029999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>23.495709999999999</v>
       </c>
@@ -9207,7 +5528,7 @@
         <v>25.322469999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>29.557539999999999</v>
       </c>
@@ -9215,7 +5536,7 @@
         <v>21.36478</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>33.008229999999998</v>
       </c>
@@ -9223,7 +5544,7 @@
         <v>15.98507</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>53.980400000000003</v>
       </c>
@@ -9231,7 +5552,7 @@
         <v>29.350989999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>52.234310000000001</v>
       </c>
@@ -9239,7 +5560,7 @@
         <v>29.711670000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>59.503079999999997</v>
       </c>
@@ -9247,7 +5568,7 @@
         <v>30.66967</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>41.163780000000003</v>
       </c>
@@ -9255,7 +5576,7 @@
         <v>34.315759999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>48.993040000000001</v>
       </c>
@@ -9263,7 +5584,7 @@
         <v>32.030360000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>59.269280000000002</v>
       </c>
@@ -9271,7 +5592,7 @@
         <v>29.640699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>45.469180000000001</v>
       </c>
@@ -9279,7 +5600,7 @@
         <v>33.831189999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>62.691270000000003</v>
       </c>
@@ -9287,7 +5608,7 @@
         <v>30.290369999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>73.428669999999997</v>
       </c>
@@ -9295,7 +5616,7 @@
         <v>48.577860000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>70.846429999999998</v>
       </c>
@@ -9303,7 +5624,7 @@
         <v>52.282249999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>71.539019999999994</v>
       </c>
@@ -9311,7 +5632,7 @@
         <v>45.521810000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>67.620869999999996</v>
       </c>
@@ -9319,7 +5640,7 @@
         <v>38.00656</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>72.470950000000002</v>
       </c>
@@ -9327,7 +5648,7 @@
         <v>51.122129999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>64.812240000000003</v>
       </c>
@@ -9335,7 +5656,7 @@
         <v>62.810920000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>60.853679999999997</v>
       </c>
@@ -9343,7 +5664,7 @@
         <v>65.49915</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>67.789500000000004</v>
       </c>
@@ -9351,7 +5672,7 @@
         <v>61.363700000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>41.609560000000002</v>
       </c>
@@ -9359,7 +5680,7 @@
         <v>83.848690000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>53.003030000000003</v>
       </c>
@@ -9367,7 +5688,7 @@
         <v>84.674800000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>54.714170000000003</v>
       </c>
@@ -9375,7 +5696,7 @@
         <v>84.043130000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>44.291670000000003</v>
       </c>
@@ -9383,7 +5704,7 @@
         <v>82.909440000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>49.191719999999997</v>
       </c>
@@ -9391,7 +5712,7 @@
         <v>85.876230000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>53.101379999999999</v>
       </c>
@@ -9399,7 +5720,7 @@
         <v>84.547659999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>51.599850000000004</v>
       </c>
@@ -9407,7 +5728,7 @@
         <v>84.819820000000007</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>54.379719999999999</v>
       </c>
@@ -9415,7 +5736,7 @@
         <v>84.240359999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>46.48077</v>
       </c>
@@ -9423,7 +5744,7 @@
         <v>83.518209999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>53.174660000000003</v>
       </c>
@@ -9431,7 +5752,7 @@
         <v>84.260570000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>45.271999999999998</v>
       </c>
@@ -9439,7 +5760,7 @@
         <v>85.237080000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>36.0334</v>
       </c>
@@ -9447,7 +5768,7 @@
         <v>53.371690000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>28.271190000000001</v>
       </c>
@@ -9455,7 +5776,7 @@
         <v>72.840230000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>25.05481</v>
       </c>
@@ -9463,7 +5784,7 @@
         <v>71.548599999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>64.758889999999994</v>
       </c>
@@ -9471,7 +5792,7 @@
         <v>82.315219999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>63.144530000000003</v>
       </c>
@@ -9479,7 +5800,7 @@
         <v>85.236699999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>50.424680000000002</v>
       </c>
@@ -9487,7 +5808,7 @@
         <v>85.174750000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>70.644999999999996</v>
       </c>
@@ -9495,7 +5816,7 @@
         <v>82.43092</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>63.149050000000003</v>
       </c>
@@ -9503,7 +5824,7 @@
         <v>83.946860000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>62.824019999999997</v>
       </c>
@@ -9511,7 +5832,7 @@
         <v>84.966189999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>70.236869999999996</v>
       </c>
@@ -9519,7 +5840,7 @@
         <v>82.171149999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>70.042739999999995</v>
       </c>
@@ -9527,7 +5848,7 @@
         <v>80.385019999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>72.570620000000005</v>
       </c>
@@ -9535,7 +5856,7 @@
         <v>80.971220000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>75.130719999999997</v>
       </c>
@@ -9543,7 +5864,7 @@
         <v>79.984089999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>83.293909999999997</v>
       </c>
@@ -9551,7 +5872,7 @@
         <v>70.77843</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>79.664259999999999</v>
       </c>
@@ -9559,7 +5880,7 @@
         <v>73.932310000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>88.432100000000005</v>
       </c>
@@ -9567,7 +5888,7 @@
         <v>64.624250000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>89.115560000000002</v>
       </c>
@@ -9575,7 +5896,7 @@
         <v>64.001509999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>89.092200000000005</v>
       </c>
@@ -9583,7 +5904,7 @@
         <v>57.768189999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>91.726010000000002</v>
       </c>
@@ -9591,7 +5912,7 @@
         <v>52.623350000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>91.73554</v>
       </c>
@@ -9599,7 +5920,7 @@
         <v>48.970210000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>91.507890000000003</v>
       </c>
@@ -9607,7 +5928,7 @@
         <v>53.312649999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>88.239000000000004</v>
       </c>
@@ -9615,7 +5936,7 @@
         <v>31.477429999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>88.530519999999996</v>
       </c>
@@ -9623,7 +5944,7 @@
         <v>30.476030000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>55.365160000000003</v>
       </c>
@@ -9631,7 +5952,7 @@
         <v>30.44585</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>62.56026</v>
       </c>
@@ -9639,7 +5960,7 @@
         <v>30.447140000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>58.00667</v>
       </c>
@@ -9647,7 +5968,7 @@
         <v>30.253720000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>55.067120000000003</v>
       </c>
@@ -9655,7 +5976,7 @@
         <v>29.01154</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>61.614780000000003</v>
       </c>
@@ -9663,7 +5984,7 @@
         <v>29.994389999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>68.543139999999994</v>
       </c>
@@ -9671,7 +5992,7 @@
         <v>35.657829999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>77.706109999999995</v>
       </c>
@@ -9679,7 +6000,7 @@
         <v>20.304259999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>68.453050000000005</v>
       </c>
@@ -9687,7 +6008,7 @@
         <v>13.03553</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>68.257210000000001</v>
       </c>
@@ -9695,7 +6016,7 @@
         <v>12.384639999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>70.255470000000003</v>
       </c>
@@ -9703,7 +6024,7 @@
         <v>13.25038</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>65.044330000000002</v>
       </c>
@@ -9711,7 +6032,7 @@
         <v>11.00084</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>60.09225</v>
       </c>
@@ -9719,7 +6040,7 @@
         <v>11.872109999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>52.99203</v>
       </c>
@@ -9727,7 +6048,7 @@
         <v>9.9066679999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>50.144629999999999</v>
       </c>
@@ -9735,7 +6056,7 @@
         <v>12.211539999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>46.508609999999997</v>
       </c>
@@ -9743,7 +6064,7 @@
         <v>11.207129999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>43.807029999999997</v>
       </c>
@@ -9751,7 +6072,7 @@
         <v>11.31894</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>57.81785</v>
       </c>
@@ -9759,7 +6080,7 @@
         <v>10.94514</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>50.940489999999997</v>
       </c>
@@ -9767,7 +6088,7 @@
         <v>9.6915469999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>63.497320000000002</v>
       </c>
@@ -9775,7 +6096,7 @@
         <v>11.914070000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>50.016480000000001</v>
       </c>
@@ -9783,7 +6104,7 @@
         <v>11.93385</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>58.636769999999999</v>
       </c>
@@ -9791,7 +6112,7 @@
         <v>11.97472</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>54.730289999999997</v>
       </c>
@@ -9799,7 +6120,7 @@
         <v>11.412879999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>65.875550000000004</v>
       </c>
@@ -9807,7 +6128,7 @@
         <v>11.73244</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>57.060980000000001</v>
       </c>
@@ -9815,7 +6136,7 @@
         <v>9.9205609999999993</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>46.81991</v>
       </c>
@@ -9823,7 +6144,7 @@
         <v>10.49465</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>38.359389999999998</v>
       </c>
@@ -9831,7 +6152,7 @@
         <v>13.431319999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>47.315420000000003</v>
       </c>
@@ -9839,7 +6160,7 @@
         <v>12.85345</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>55.051920000000003</v>
       </c>
@@ -9847,7 +6168,7 @@
         <v>11.94999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>50.51596</v>
       </c>
@@ -9855,7 +6176,7 @@
         <v>9.7655919999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>49.677410000000002</v>
       </c>
@@ -9863,7 +6184,7 @@
         <v>10.38313</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>67.280659999999997</v>
       </c>
@@ -9871,7 +6192,7 @@
         <v>14.12865</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>66.173019999999994</v>
       </c>
@@ -9879,7 +6200,7 @@
         <v>12.03792</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>61.088540000000002</v>
       </c>
@@ -9887,7 +6208,7 @@
         <v>10.084530000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>66.053089999999997</v>
       </c>
@@ -9895,7 +6216,7 @@
         <v>13.380229999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>72.669989999999999</v>
       </c>
@@ -9903,7 +6224,7 @@
         <v>15.23423</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>61.50347</v>
       </c>
@@ -9911,7 +6232,7 @@
         <v>10.82841</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>68.99503</v>
       </c>
@@ -9919,7 +6240,7 @@
         <v>13.99431</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>78.249920000000003</v>
       </c>
@@ -9927,7 +6248,7 @@
         <v>17.883240000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>36.48198</v>
       </c>
@@ -9935,7 +6256,7 @@
         <v>15.16276</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>50.967750000000002</v>
       </c>
@@ -9943,7 +6264,7 @@
         <v>29.679770000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>91.191050000000004</v>
       </c>
@@ -9951,7 +6272,7 @@
         <v>46.674340000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>55.863770000000002</v>
       </c>
@@ -9959,7 +6280,7 @@
         <v>85.336489999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>49.280589999999997</v>
       </c>
@@ -9967,7 +6288,7 @@
         <v>84.048820000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>43.368499999999997</v>
       </c>
@@ -9977,9 +6298,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/08/datasaurus.xlsx
+++ b/08/datasaurus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5DD16-0ABB-8547-9B28-3F539AD63EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6BC94-A212-9C49-A367-992F7B6D19C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1840" windowWidth="26040" windowHeight="15020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1780" windowWidth="26040" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dino" sheetId="5" r:id="rId1"/>
@@ -623,1846 +623,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Star!$A$2:$A$143</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="142"/>
-                <c:pt idx="0">
-                  <c:v>58.213610000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.19605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.718229999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.278370000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.08202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.489449999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.088740000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.085470000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.08727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.578029999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.779920000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.588999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.739139999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.0246</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.80134</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.18646</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.285150000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>39.402949999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.811330000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34.303959999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.60276</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>49.116160000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39.617550000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43.233080000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>64.892790000000005</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>62.49015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>68.988079999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62.105620000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.461849999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41.327199999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44.007150000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44.074060000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44.00132</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45.006300000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44.443840000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42.178710000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44.04457</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41.640450000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41.938330000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44.053930000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39.206719999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>28.704450000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>31.708659999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42.811709999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43.300609999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40.398629999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40.435690000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40.936549999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39.661569999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40.899259999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41.968620000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40.383409999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>56.538130000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>52.970689999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.620950000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>65.099040000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>63.055990000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>70.960139999999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>69.895820000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>70.595889999999997</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>69.647019999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>77.392979999999994</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64.400790000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.868960000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>56.59442</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>56.53134</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>59.652160000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>56.636510000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>58.672289999999997</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>58.221609999999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>57.914659999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>55.315510000000003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>54.57573</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>54.413089999999997</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>55.074509999999997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>29.432960000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>29.422689999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29.005610000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>58.461840000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>57.997799999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>57.549469999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>59.52993</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>58.249389999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>58.024509999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>58.38212</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>62.566760000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>72.175820000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>79.472759999999994</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>80.357699999999994</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>78.757239999999996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>82.540239999999997</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>86.435900000000004</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>79.488680000000002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>81.530420000000007</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>79.186790000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>77.899060000000006</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>75.130709999999993</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>76.058009999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>57.614669999999997</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>56.171399999999998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>66.287890000000004</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>67.881720000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>64.028080000000003</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>77.496650000000002</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>77.634649999999993</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>77.863730000000004</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>77.338160000000002</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>76.180419999999998</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>77.252650000000003</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>77.413380000000004</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>76.731849999999994</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>49.471110000000003</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42.47654</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43.595120000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>50.339970000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>40.748980000000003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>38.38653</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>38.404020000000003</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>38.764279999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>41.470140000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>47.1554</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>39.582569999999997</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>41.74024</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>39.311869999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>41.679850000000002</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>39.08746</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>41.481499999999997</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>77.606089999999995</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>75.982659999999996</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>76.945760000000007</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>77.543719999999993</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>77.584739999999996</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>76.822299999999998</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>77.348569999999995</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>77.573149999999998</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>77.972610000000003</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>41.528919999999999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>43.722549999999998</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>79.326080000000005</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>56.663969999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>57.82179</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>58.243169999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Star!$B$2:$B$143</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="142"/>
-                <c:pt idx="0">
-                  <c:v>91.881889999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.21499</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.31053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.907610000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92.008150000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88.085290000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.51079</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.590200000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.123280000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62.821040000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>63.518149999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>63.024079999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.720860000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.901859999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63.389040000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.558729999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>63.383609999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51.150860000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>61.357849999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.54213</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60.157350000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63.66</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62.925190000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.165219999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.814179999999993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>74.584289999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.232149999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>75.990870000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>62.881900000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.070250000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>46.449669999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>34.553199999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.904209999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38.299019999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36.019080000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>26.49212</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35.662239999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27.0931</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.991520000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>33.55639</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>51.533720000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>61.777529999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>58.83775</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30.02045</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>31.526430000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16.347010000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>20.232669999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16.913</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15.609360000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>20.79853</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>26.497070000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>21.39123</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.444249999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.040199999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>30.344519999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27.24156</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.709099999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41.259500000000003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43.453760000000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41.964739999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44.044449999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63.371459999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67.448719999999994</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>70.213740000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>86.927009999999996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>87.499809999999997</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>87.809460000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>85.637500000000003</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>90.077160000000006</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>90.411019999999994</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>89.953800000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>80.251859999999994</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77.536289999999994</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78.229089999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>79.817549999999997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>60.801780000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>63.068460000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.390749999999997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>90.265330000000006</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>92.159909999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>90.748909999999995</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>88.327269999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>92.129679999999993</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>91.694419999999994</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>90.553479999999993</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>77.743930000000006</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>63.128929999999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>63.40869</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>63.295439999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>53.332619999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>56.541049999999998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>59.792760000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>53.651670000000003</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>56.025359999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>53.234789999999997</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>51.82246</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>23.372440000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>16.383749999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>33.822450000000003</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>32.117989999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>26.11711</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>24.23602</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>27.672689999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14.94852</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.46185</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.61068</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>15.89005</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15.912570000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>15.15152</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>15.22193</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16.216850000000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>25.063020000000002</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>18.338470000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>19.994199999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>26.471399999999999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>16.18214</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>14.580220000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>14.45195</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>14.365589999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>17.278030000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>22.377929999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>17.64845</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>17.829319999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>15.64072</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>17.745920000000002</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>15.122299999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>18.047440000000002</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>15.16287</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>16.306920000000002</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>15.85848</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>15.25395</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>15.83004</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>15.59517</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15.77453</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>14.78065</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>14.9557</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>24.916429999999998</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>19.07733</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>52.900390000000002</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>87.940129999999996</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>90.693169999999995</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>92.104330000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{3CAB9DC6-D688-4051-8760-27776920F428}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1312801800"/>
-        <c:axId val="1312804360"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1312801800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>x</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312804360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1312804360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>y</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312801800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Scatter. &#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A87327D-5FD2-05BF-ABD1-32539AF1B7D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA53A75C-48B8-4003-8022-C9C757A09D48}" name="Dino" displayName="Dino" ref="A1:B143" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:B143" xr:uid="{BA53A75C-48B8-4003-8022-C9C757A09D48}"/>
@@ -2815,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F61B0-09A1-4AEF-B28B-25B4C997B765}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -3981,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A245FE4-01E2-4780-895F-079215EC8E86}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -5137,9 +3297,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5148,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F54102-C37E-4F24-8BDB-5CD8F29A8004}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A124" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
